--- a/prices_database_1.xlsx
+++ b/prices_database_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="63">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>British Gypsum GYPROC Fireline Duplex</t>
-  </si>
-  <si>
     <t>British Gypsum GYPROC Fireline MR</t>
   </si>
   <si>
@@ -76,7 +73,10 @@
     <t>Knauf Fire Panel</t>
   </si>
   <si>
-    <t>TEPalletof60</t>
+    <t>Fireproof Plasterboard</t>
+  </si>
+  <si>
+    <t>British Gypsum Gyproc Fireline Plasterboard</t>
   </si>
   <si>
     <t>TE</t>
@@ -85,9 +85,6 @@
     <t>SE</t>
   </si>
   <si>
-    <t>https://www.buildingmaterials.co.uk//british-gypsum-gyproc-fireline-duplex-2400mm-x-1200mm-x-12-5mm-te-pallet-of-60-2-88m2</t>
-  </si>
-  <si>
     <t>https://www.buildingmaterials.co.uk//british-gypsum-gyproc-fireline-mr-3000mm-x-1200mm-x-12-5mm-te-3-6m2</t>
   </si>
   <si>
@@ -187,13 +184,25 @@
     <t>https://www.buildingmaterials.co.uk//knauf-fire-panel-1800mm-x-900mm-x-12-5mm-se-1-62m2</t>
   </si>
   <si>
+    <t>https://www.buildingmaterials.co.uk//knauf-fire-panel-2400mm-x-1200mm-x-12-5mm-se-2-88m2</t>
+  </si>
+  <si>
     <t>https://www.buildingmaterials.co.uk//knauf-fire-panel-2400mm-x-1200mm-x-12-5mm-te-2-88m2</t>
   </si>
   <si>
     <t>https://www.buildingmaterials.co.uk//knauf-fire-panel-2400mm-x-1200mm-x-15mm-te-2-88m2</t>
   </si>
   <si>
-    <t>https://www.buildingmaterials.co.uk//knauf-fire-panel-2400mm-x-1200mm-x-12-5mm-se-2-88m2</t>
+    <t>https://www.buildingmaterials.co.uk//fireproof-plasterboard-15mm</t>
+  </si>
+  <si>
+    <t>https://www.buildingmaterials.co.uk//british-gypsum-gyproc-fireline-plasterboard-12-5mm</t>
+  </si>
+  <si>
+    <t>https://www.buildingmaterials.co.uk//fireproof-plasterboard-12-5mm</t>
+  </si>
+  <si>
+    <t>https://www.buildingmaterials.co.uk//british-gypsum-gyproc-fireline-plasterboard-15mm</t>
   </si>
 </sst>
 </file>
@@ -564,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,16 +613,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="E2">
         <v>1200</v>
@@ -622,16 +631,16 @@
         <v>12.5</v>
       </c>
       <c r="G2">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2">
-        <v>948.28</v>
+        <v>24.88</v>
       </c>
       <c r="J2">
-        <v>1137.94</v>
+        <v>29.86</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>23</v>
@@ -639,34 +648,34 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="E3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F3">
         <v>12.5</v>
       </c>
       <c r="G3">
-        <v>3.6</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>24.88</v>
+        <v>7.23</v>
       </c>
       <c r="J3">
-        <v>29.86</v>
+        <v>8.68</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>24</v>
@@ -674,13 +683,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>1800</v>
@@ -695,7 +704,7 @@
         <v>1.62</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4">
         <v>7.23</v>
@@ -709,13 +718,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>1800</v>
@@ -724,7 +733,7 @@
         <v>900</v>
       </c>
       <c r="F5">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>1.62</v>
@@ -733,10 +742,10 @@
         <v>21</v>
       </c>
       <c r="I5">
-        <v>7.23</v>
+        <v>8.68</v>
       </c>
       <c r="J5">
-        <v>8.68</v>
+        <v>10.42</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>26</v>
@@ -744,34 +753,34 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="E6">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G6">
-        <v>1.62</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6">
-        <v>8.68</v>
+        <v>10.32</v>
       </c>
       <c r="J6">
-        <v>10.42</v>
+        <v>12.38</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>27</v>
@@ -779,13 +788,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>2400</v>
@@ -800,7 +809,7 @@
         <v>2.88</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7">
         <v>10.32</v>
@@ -814,13 +823,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>2400</v>
@@ -829,7 +838,7 @@
         <v>1200</v>
       </c>
       <c r="F8">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>2.88</v>
@@ -838,10 +847,10 @@
         <v>21</v>
       </c>
       <c r="I8">
-        <v>10.32</v>
+        <v>12.17</v>
       </c>
       <c r="J8">
-        <v>12.38</v>
+        <v>14.6</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>29</v>
@@ -849,34 +858,34 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="E9">
         <v>1200</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G9">
-        <v>2.88</v>
+        <v>3.24</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
       <c r="I9">
-        <v>12.17</v>
+        <v>11.62</v>
       </c>
       <c r="J9">
-        <v>14.6</v>
+        <v>13.94</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>30</v>
@@ -884,13 +893,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>2700</v>
@@ -899,7 +908,7 @@
         <v>1200</v>
       </c>
       <c r="F10">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G10">
         <v>3.24</v>
@@ -908,10 +917,10 @@
         <v>21</v>
       </c>
       <c r="I10">
-        <v>11.62</v>
+        <v>13.69</v>
       </c>
       <c r="J10">
-        <v>13.94</v>
+        <v>16.43</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>31</v>
@@ -919,34 +928,34 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="E11">
         <v>1200</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G11">
-        <v>3.24</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="s">
         <v>21</v>
       </c>
       <c r="I11">
-        <v>13.69</v>
+        <v>12.9</v>
       </c>
       <c r="J11">
-        <v>16.43</v>
+        <v>15.48</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>32</v>
@@ -954,13 +963,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>3000</v>
@@ -969,7 +978,7 @@
         <v>1200</v>
       </c>
       <c r="F12">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3.6</v>
@@ -978,10 +987,10 @@
         <v>21</v>
       </c>
       <c r="I12">
-        <v>12.9</v>
+        <v>15.21</v>
       </c>
       <c r="J12">
-        <v>15.48</v>
+        <v>18.25</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>33</v>
@@ -989,10 +998,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1001,22 +1010,22 @@
         <v>3000</v>
       </c>
       <c r="E13">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G13">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13">
-        <v>15.21</v>
+        <v>78.11</v>
       </c>
       <c r="J13">
-        <v>18.25</v>
+        <v>93.73</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>34</v>
@@ -1024,34 +1033,34 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E14">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F14">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="G14">
-        <v>1.8</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14">
-        <v>78.11</v>
+        <v>14.24</v>
       </c>
       <c r="J14">
-        <v>93.73</v>
+        <v>17.09</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>35</v>
@@ -1059,13 +1068,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
       </c>
       <c r="D15">
         <v>2400</v>
@@ -1074,7 +1083,7 @@
         <v>1200</v>
       </c>
       <c r="F15">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <v>2.88</v>
@@ -1083,10 +1092,10 @@
         <v>21</v>
       </c>
       <c r="I15">
-        <v>14.24</v>
+        <v>17.74</v>
       </c>
       <c r="J15">
-        <v>17.09</v>
+        <v>21.29</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>36</v>
@@ -1094,16 +1103,16 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="E16">
         <v>1200</v>
@@ -1112,16 +1121,16 @@
         <v>15</v>
       </c>
       <c r="G16">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="s">
         <v>21</v>
       </c>
       <c r="I16">
-        <v>17.74</v>
+        <v>22.18</v>
       </c>
       <c r="J16">
-        <v>21.29</v>
+        <v>26.62</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>37</v>
@@ -1129,34 +1138,34 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E17">
         <v>1200</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G17">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="H17" t="s">
         <v>21</v>
       </c>
       <c r="I17">
-        <v>22.18</v>
+        <v>17.46</v>
       </c>
       <c r="J17">
-        <v>26.62</v>
+        <v>20.95</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>38</v>
@@ -1164,13 +1173,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>2400</v>
@@ -1179,7 +1188,7 @@
         <v>1200</v>
       </c>
       <c r="F18">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <v>2.88</v>
@@ -1188,10 +1197,10 @@
         <v>21</v>
       </c>
       <c r="I18">
-        <v>17.46</v>
+        <v>19.19</v>
       </c>
       <c r="J18">
-        <v>20.95</v>
+        <v>23.03</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>39</v>
@@ -1199,10 +1208,10 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -1214,7 +1223,7 @@
         <v>1200</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G19">
         <v>2.88</v>
@@ -1223,10 +1232,10 @@
         <v>21</v>
       </c>
       <c r="I19">
-        <v>19.19</v>
+        <v>41.5</v>
       </c>
       <c r="J19">
-        <v>23.03</v>
+        <v>49.8</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>40</v>
@@ -1234,13 +1243,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20">
         <v>2400</v>
@@ -1249,7 +1258,7 @@
         <v>1200</v>
       </c>
       <c r="F20">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G20">
         <v>2.88</v>
@@ -1258,10 +1267,10 @@
         <v>21</v>
       </c>
       <c r="I20">
-        <v>41.5</v>
+        <v>55.08</v>
       </c>
       <c r="J20">
-        <v>49.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>41</v>
@@ -1269,34 +1278,34 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="E21">
         <v>1200</v>
       </c>
       <c r="F21">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G21">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="s">
         <v>21</v>
       </c>
       <c r="I21">
-        <v>55.08</v>
+        <v>51.86</v>
       </c>
       <c r="J21">
-        <v>66.09999999999999</v>
+        <v>62.23</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>42</v>
@@ -1304,13 +1313,13 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>3000</v>
@@ -1319,7 +1328,7 @@
         <v>1200</v>
       </c>
       <c r="F22">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G22">
         <v>3.6</v>
@@ -1328,10 +1337,10 @@
         <v>21</v>
       </c>
       <c r="I22">
-        <v>51.86</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="J22">
-        <v>62.23</v>
+        <v>82.62</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>43</v>
@@ -1339,34 +1348,34 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E23">
         <v>1200</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G23">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="H23" t="s">
         <v>21</v>
       </c>
       <c r="I23">
-        <v>68.84999999999999</v>
+        <v>20.29</v>
       </c>
       <c r="J23">
-        <v>82.62</v>
+        <v>24.35</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>44</v>
@@ -1374,13 +1383,13 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>2400</v>
@@ -1389,7 +1398,7 @@
         <v>1200</v>
       </c>
       <c r="F24">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G24">
         <v>2.88</v>
@@ -1398,10 +1407,10 @@
         <v>21</v>
       </c>
       <c r="I24">
-        <v>20.29</v>
+        <v>24.23</v>
       </c>
       <c r="J24">
-        <v>24.35</v>
+        <v>29.08</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>45</v>
@@ -1409,34 +1418,34 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="E25">
         <v>1200</v>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G25">
-        <v>2.88</v>
+        <v>3.24</v>
       </c>
       <c r="H25" t="s">
         <v>21</v>
       </c>
       <c r="I25">
-        <v>24.23</v>
+        <v>22.82</v>
       </c>
       <c r="J25">
-        <v>29.08</v>
+        <v>27.38</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>46</v>
@@ -1444,13 +1453,13 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>2700</v>
@@ -1459,7 +1468,7 @@
         <v>1200</v>
       </c>
       <c r="F26">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3.24</v>
@@ -1468,10 +1477,10 @@
         <v>21</v>
       </c>
       <c r="I26">
-        <v>22.82</v>
+        <v>27.26</v>
       </c>
       <c r="J26">
-        <v>27.38</v>
+        <v>32.71</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>47</v>
@@ -1479,34 +1488,34 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="E27">
         <v>1200</v>
       </c>
       <c r="F27">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G27">
-        <v>3.24</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="s">
         <v>21</v>
       </c>
       <c r="I27">
-        <v>27.26</v>
+        <v>25.35</v>
       </c>
       <c r="J27">
-        <v>32.71</v>
+        <v>30.42</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>48</v>
@@ -1514,13 +1523,13 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28">
         <v>3000</v>
@@ -1529,7 +1538,7 @@
         <v>1200</v>
       </c>
       <c r="F28">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G28">
         <v>3.6</v>
@@ -1538,10 +1547,10 @@
         <v>21</v>
       </c>
       <c r="I28">
-        <v>25.35</v>
+        <v>30.3</v>
       </c>
       <c r="J28">
-        <v>30.42</v>
+        <v>36.36</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>49</v>
@@ -1549,34 +1558,34 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E29">
         <v>1200</v>
       </c>
       <c r="F29">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G29">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="H29" t="s">
         <v>21</v>
       </c>
       <c r="I29">
-        <v>30.3</v>
+        <v>13.35</v>
       </c>
       <c r="J29">
-        <v>36.36</v>
+        <v>16.02</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>50</v>
@@ -1584,13 +1593,13 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30">
         <v>2400</v>
@@ -1599,7 +1608,7 @@
         <v>1200</v>
       </c>
       <c r="F30">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G30">
         <v>2.88</v>
@@ -1608,10 +1617,10 @@
         <v>21</v>
       </c>
       <c r="I30">
-        <v>13.35</v>
+        <v>18.57</v>
       </c>
       <c r="J30">
-        <v>16.02</v>
+        <v>22.28</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>51</v>
@@ -1619,16 +1628,16 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="E31">
         <v>1200</v>
@@ -1637,16 +1646,16 @@
         <v>15</v>
       </c>
       <c r="G31">
-        <v>2.88</v>
+        <v>3.24</v>
       </c>
       <c r="H31" t="s">
         <v>21</v>
       </c>
       <c r="I31">
-        <v>18.57</v>
+        <v>20.89</v>
       </c>
       <c r="J31">
-        <v>22.28</v>
+        <v>25.07</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>52</v>
@@ -1654,34 +1663,34 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="E32">
         <v>1200</v>
       </c>
       <c r="F32">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G32">
-        <v>3.24</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="s">
         <v>21</v>
       </c>
       <c r="I32">
-        <v>20.89</v>
+        <v>16.7</v>
       </c>
       <c r="J32">
-        <v>25.07</v>
+        <v>20.04</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>53</v>
@@ -1689,13 +1698,13 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33">
         <v>3000</v>
@@ -1704,7 +1713,7 @@
         <v>1200</v>
       </c>
       <c r="F33">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G33">
         <v>3.6</v>
@@ -1713,10 +1722,10 @@
         <v>21</v>
       </c>
       <c r="I33">
-        <v>16.7</v>
+        <v>23.21</v>
       </c>
       <c r="J33">
-        <v>20.04</v>
+        <v>27.85</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>54</v>
@@ -1724,34 +1733,34 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
       </c>
       <c r="D34">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="E34">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F34">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G34">
-        <v>3.6</v>
+        <v>1.62</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I34">
-        <v>23.21</v>
+        <v>16.86</v>
       </c>
       <c r="J34">
-        <v>27.85</v>
+        <v>20.23</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>55</v>
@@ -1759,34 +1768,34 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="E35">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F35">
         <v>12.5</v>
       </c>
       <c r="G35">
-        <v>1.62</v>
+        <v>2.88</v>
       </c>
       <c r="H35" t="s">
         <v>22</v>
       </c>
       <c r="I35">
-        <v>16.86</v>
+        <v>10.65</v>
       </c>
       <c r="J35">
-        <v>20.23</v>
+        <v>12.78</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>56</v>
@@ -1794,13 +1803,13 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36">
         <v>2400</v>
@@ -1829,13 +1838,13 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37">
         <v>2400</v>
@@ -1853,10 +1862,10 @@
         <v>21</v>
       </c>
       <c r="I37">
-        <v>10.65</v>
+        <v>13.4</v>
       </c>
       <c r="J37">
-        <v>12.78</v>
+        <v>16.08</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>58</v>
@@ -1864,37 +1873,106 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>19</v>
       </c>
-      <c r="D38">
-        <v>2400</v>
-      </c>
-      <c r="E38">
-        <v>1200</v>
-      </c>
       <c r="F38">
-        <v>12.5</v>
-      </c>
-      <c r="G38">
-        <v>2.88</v>
+        <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I38">
-        <v>10.65</v>
+        <v>7.78</v>
       </c>
       <c r="J38">
-        <v>12.78</v>
+        <v>9.34</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>12.5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39">
+        <v>5.81</v>
+      </c>
+      <c r="J39">
+        <v>6.97</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <v>12.5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40">
+        <v>6.48</v>
+      </c>
+      <c r="J40">
+        <v>7.78</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="J41">
+        <v>9.76</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1936,6 +2014,9 @@
     <hyperlink ref="K36" r:id="rId35"/>
     <hyperlink ref="K37" r:id="rId36"/>
     <hyperlink ref="K38" r:id="rId37"/>
+    <hyperlink ref="K39" r:id="rId38"/>
+    <hyperlink ref="K40" r:id="rId39"/>
+    <hyperlink ref="K41" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
